--- a/biology/Botanique/Pedinellales/Pedinellales.xlsx
+++ b/biology/Botanique/Pedinellales/Pedinellales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Pedinellales sont un ordre d'algues unicellulaires de la classe des Dictyochophyceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pedinellales sont un ordre d'algues unicellulaires de la classe des Dictyochophyceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient de la famille type des  Pedinellaceae, elle même issue de son ancien genre type Pedinella. Ce dernier est peut-être dérivé du grec πεδινε / pedine, plat, qui avec la désinence latine ella, petite, signifie littéralement « petit (et) plat », qui pourrait faire référence à la cellule « en forme de pomme aplatie » ou « au flagelle épais et plat, en forme de ruban[note 1] »[2]. Taylor remarque aussi « l'aplatissement latéral en forme de ruban [note 2] du flagelle antérieur chez les genres Pedinella et Apedinella »[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient de la famille type des  Pedinellaceae, elle même issue de son ancien genre type Pedinella. Ce dernier est peut-être dérivé du grec πεδινε / pedine, plat, qui avec la désinence latine ella, petite, signifie littéralement « petit (et) plat », qui pourrait faire référence à la cellule « en forme de pomme aplatie » ou « au flagelle épais et plat, en forme de ruban[note 1] ». Taylor remarque aussi « l'aplatissement latéral en forme de ruban [note 2] du flagelle antérieur chez les genres Pedinella et Apedinella ». 
 Une autre possibilité serait une dérivation du latin pes / ped, pied et ella, petit, littéralement « petit pied », en référence à la forme de l'organisme.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jeunes cellules de Pedinella nageant activement sont en forme de pomme, étant plutôt aplaties de l'avant vers l'arrière et à peu près circulaires lorsqu'elles sont vues vers l'avant, avec une profonde indentation au pôle antérieur et une moins profonde au pôle postérieur. Elles mesurent 7 à 8 μm de long, et 9 à 10 μm de large. Les cellules plus anciennes ont souvent un contour quelque peu irrégulier. Les cellules en division sont plus grandes (11 à 12 μm de diamètre)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes cellules de Pedinella nageant activement sont en forme de pomme, étant plutôt aplaties de l'avant vers l'arrière et à peu près circulaires lorsqu'elles sont vues vers l'avant, avec une profonde indentation au pôle antérieur et une moins profonde au pôle postérieur. Elles mesurent 7 à 8 μm de long, et 9 à 10 μm de large. Les cellules plus anciennes ont souvent un contour quelque peu irrégulier. Les cellules en division sont plus grandes (11 à 12 μm de diamètre).
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La validité de la famille des Pedinellaceae a été discutée. C'est Adolf Pascher qui, en 1910, créa cette famille pour y inclure Pedinella seul. En 1911, après avoir décrit Cyrtophora, Pascher proposa la famille des Cyrtophoraceae, dans lesquelles étaient placées Pedinella, Cyrtophora et Palatinella[2]. 
-Selon AlgaeBase                                           (13 février 2022)[1], les genres des familles des Cyrtophoraceae et des Pedinellaceae doivent être intégrés à la famille des Actinomonadaceae.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La validité de la famille des Pedinellaceae a été discutée. C'est Adolf Pascher qui, en 1910, créa cette famille pour y inclure Pedinella seul. En 1911, après avoir décrit Cyrtophora, Pascher proposa la famille des Cyrtophoraceae, dans lesquelles étaient placées Pedinella, Cyrtophora et Palatinella. 
+Selon AlgaeBase                                           (13 février 2022), les genres des familles des Cyrtophoraceae et des Pedinellaceae doivent être intégrés à la famille des Actinomonadaceae.
 </t>
         </is>
       </c>
@@ -606,11 +624,13 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (13 février 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (13 février 2022) :
 Actinomonadaceae  Kent, 1881
-Selon World Register of Marine Species                               (13 février 2022)[4] :
+Selon World Register of Marine Species                               (13 février 2022) :
 Cyrtophoraceae Pascher, 1911
 Pedinellaceae Pascher, 1910</t>
         </is>
